--- a/Assets/DataTable/XlsFile/PlayerExp.xlsx
+++ b/Assets/DataTable/XlsFile/PlayerExp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\授業使用\coly_project\Funkeln\Assets\DataTable\XlsFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\制作\Funkeln\Assets\DataTable\XlsFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358A7E9F-FD91-4E63-9264-E5E72238425B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABEA1C4-1421-49EE-AC29-18538EBCC314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5724" yWindow="2316" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29190" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExpTable" sheetId="1" r:id="rId1"/>
@@ -402,15 +402,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="5" width="12.09765625" customWidth="1"/>
+    <col min="2" max="5" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.600000000000001" thickBot="1">
+    <row r="1" spans="1:2" ht="19.5" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -431,7 +433,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -439,7 +441,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -447,7 +449,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -455,7 +457,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -463,7 +465,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -471,7 +473,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>17.8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -479,7 +481,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>20.457142857142902</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -487,7 +489,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>23.114285714285799</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -495,7 +497,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>25.771428571428601</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -503,7 +505,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>28.428571428571502</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -511,7 +513,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>31.0857142857143</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -519,7 +521,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>33.742857142857197</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -527,7 +529,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>36.4</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -535,7 +537,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>39.0571428571429</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -543,7 +545,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>41.714285714285801</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -551,7 +553,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>44.371428571428602</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -559,7 +561,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>47.028571428571503</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -567,7 +569,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>49.685714285714297</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -575,7 +577,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>52.342857142857198</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
